--- a/Ke Hoach Nhom 1.xlsx
+++ b/Ke Hoach Nhom 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19110\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96929EAC-FEC5-4093-ACD9-759305BC3F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23259105-69F7-4CC0-8A1B-5240A06F3C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -305,6 +305,27 @@
   </si>
   <si>
     <t>Website giúp cho việc đặt phòng khách sạn trở nên dễ dàng hơn so với việc tới tận nơi</t>
+  </si>
+  <si>
+    <t>24/8/2022</t>
+  </si>
+  <si>
+    <t>25/08/2022</t>
+  </si>
+  <si>
+    <t>02/09/2022</t>
+  </si>
+  <si>
+    <t>05/09/2022</t>
+  </si>
+  <si>
+    <t>06/09/2022</t>
+  </si>
+  <si>
+    <t>11/09/2022</t>
+  </si>
+  <si>
+    <t>18/09/2022</t>
   </si>
 </sst>
 </file>
@@ -376,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,6 +441,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,34 +452,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -614,6 +610,34 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -628,19 +652,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A7:J39" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A7:J39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A7:J39" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Công việc" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Chi tiết công việc" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Võ Bảo Long" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Đoàn Phan Nguyên" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày bắt đầu dự kiến" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ngày kết thúc dự kiến" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu thực tế" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc thực tế" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ghi chú" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Công việc" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Chi tiết công việc" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Võ Bảo Long" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Đoàn Phan Nguyên" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày bắt đầu dự kiến" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ngày kết thúc dự kiến" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu thực tế" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc thực tế" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ghi chú" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -945,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -965,74 +989,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1106,7 +1130,9 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="6" t="s">
         <v>42</v>
@@ -1114,8 +1140,12 @@
       <c r="G9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1124,7 +1154,9 @@
       <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="7" t="s">
         <v>46</v>
@@ -1132,8 +1164,12 @@
       <c r="G10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1143,15 +1179,21 @@
         <v>13</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1160,16 +1202,24 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1182,16 +1232,24 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1212,7 +1270,9 @@
       <c r="G14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="1"/>
     </row>
